--- a/data/industry/TrendForce/NAND Flash.xlsx
+++ b/data/industry/TrendForce/NAND Flash.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\DRAMExchange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B93DD-4B70-4212-B599-89391C28CFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA35FC06-42CC-4349-8F02-4AB11911325A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flash" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -290,9 +290,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -355,7 +355,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -364,31 +364,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1566,11 +1566,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A9E7BC-4FDA-42FF-94EB-B5FEB168C665}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1581,7 +1581,7 @@
     <col min="4" max="4" width="11.75" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.875" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="9" bestFit="1" customWidth="1"/>
@@ -1806,23 +1806,63 @@
       <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="A4" s="6">
+        <v>46052</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46052</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>185.23</v>
+      </c>
+      <c r="F4" s="4">
+        <v>185.23</v>
+      </c>
+      <c r="G4" s="4">
+        <v>185.23</v>
+      </c>
+      <c r="H4" s="4">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="I4" s="4">
+        <v>108.8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>125</v>
+      </c>
+      <c r="K4" s="4">
+        <v>199.99</v>
+      </c>
+      <c r="L4" s="4">
+        <v>199.99</v>
+      </c>
+      <c r="M4" s="4">
+        <v>199.99</v>
+      </c>
+      <c r="N4" s="4">
+        <v>328.64</v>
+      </c>
+      <c r="O4" s="4">
+        <v>189.99</v>
+      </c>
+      <c r="P4" s="4">
+        <v>259.32</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>155.79</v>
+      </c>
+      <c r="R4" s="4">
+        <v>155.79</v>
+      </c>
+      <c r="S4" s="4">
+        <v>155.79</v>
+      </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>

--- a/data/industry/TrendForce/NAND Flash.xlsx
+++ b/data/industry/TrendForce/NAND Flash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA35FC06-42CC-4349-8F02-4AB11911325A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1058012-BF24-4A07-8415-2EDC048AFB07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flash" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="72">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -678,7 +678,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -861,20 +861,54 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="A4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.623</v>
+      </c>
+      <c r="K4" s="4">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="N4" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="P4" s="4">
+        <v>4.9050000000000002</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -898,6 +932,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -909,7 +944,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1074,17 +1109,45 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="A4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7.5720000000000001</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4.9870000000000001</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1119,10 +1182,10 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N32" sqref="N32"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1307,20 +1370,54 @@
       <c r="Y3" s="4"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="A4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="B4" s="6">
+        <v>46048</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4.2850000000000001</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="M4" s="4">
+        <v>6</v>
+      </c>
+      <c r="N4" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="P4" s="4">
+        <v>11.8</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -1566,11 +1663,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A9E7BC-4FDA-42FF-94EB-B5FEB168C665}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1898,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF9DD02-7584-4E7B-8430-E8812C31F69E}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/industry/TrendForce/NAND Flash.xlsx
+++ b/data/industry/TrendForce/NAND Flash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1058012-BF24-4A07-8415-2EDC048AFB07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79A550B-6349-4960-8E03-46A841C5AFDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="72">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -678,7 +678,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -920,8 +920,54 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.028</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1.673</v>
+      </c>
+      <c r="K5" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L5" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="M5" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="N5" s="9">
+        <v>6.25</v>
+      </c>
+      <c r="O5" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P5" s="9">
+        <v>4.9729999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -944,7 +990,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1162,8 +1208,45 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>17.724</v>
+      </c>
+      <c r="H5" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>8.7479999999999993</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="L5" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="M5" s="9">
+        <v>5.5170000000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1185,7 +1268,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1429,8 +1512,54 @@
       <c r="Y4" s="4"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46055</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>6.95</v>
+      </c>
+      <c r="L5" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="N5" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="O5" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="P5" s="9">
+        <v>12.8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/industry/TrendForce/NAND Flash.xlsx
+++ b/data/industry/TrendForce/NAND Flash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79A550B-6349-4960-8E03-46A841C5AFDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E050AC2-8380-4A80-AD36-8D68D83EEBD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flash" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="73">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -283,6 +283,9 @@
   <si>
     <t>Silicon Power</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTC+8</t>
   </si>
 </sst>
 </file>
@@ -1792,11 +1795,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A9E7BC-4FDA-42FF-94EB-B5FEB168C665}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2105,8 +2108,63 @@
       <c r="AG4" s="4"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6">
+        <v>46066</v>
+      </c>
+      <c r="B5" s="6">
+        <v>46066</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="9">
+        <v>116.66</v>
+      </c>
+      <c r="F5" s="9">
+        <v>99</v>
+      </c>
+      <c r="G5" s="9">
+        <v>107.83</v>
+      </c>
+      <c r="H5" s="9">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="I5" s="9">
+        <v>108.8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>125</v>
+      </c>
+      <c r="K5" s="9">
+        <v>199.99</v>
+      </c>
+      <c r="L5" s="9">
+        <v>199.99</v>
+      </c>
+      <c r="M5" s="9">
+        <v>199.99</v>
+      </c>
+      <c r="N5" s="9">
+        <v>522.17999999999995</v>
+      </c>
+      <c r="O5" s="9">
+        <v>335.83</v>
+      </c>
+      <c r="P5" s="9">
+        <v>429.01</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>155.79</v>
+      </c>
+      <c r="R5" s="9">
+        <v>155.79</v>
+      </c>
+      <c r="S5" s="9">
+        <v>155.79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2124,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF9DD02-7584-4E7B-8430-E8812C31F69E}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/data/industry/TrendForce/NAND Flash.xlsx
+++ b/data/industry/TrendForce/NAND Flash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E050AC2-8380-4A80-AD36-8D68D83EEBD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B8FFF9-74A7-444B-A60D-85603CE9E1A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="73">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -675,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="A5:D5"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -972,6 +972,56 @@
         <v>4.9729999999999999</v>
       </c>
     </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.85</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="K6" s="9">
+        <v>10</v>
+      </c>
+      <c r="L6" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="M6" s="9">
+        <v>8.375</v>
+      </c>
+      <c r="N6" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="O6" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="P6" s="9">
+        <v>5.2450000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -987,13 +1037,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54319F21-0FC0-45E2-9E0C-131772CB34B0}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1251,6 +1301,47 @@
         <v>5.5170000000000003</v>
       </c>
     </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="9">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>17.948</v>
+      </c>
+      <c r="H6" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>8.7479999999999993</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="L6" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="M6" s="9">
+        <v>5.5170000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
@@ -1265,13 +1356,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873B53F4-91AF-4D49-84B3-FC7BC3C51C10}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1562,6 +1653,56 @@
       </c>
       <c r="P5" s="9">
         <v>12.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46062</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2.415</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4.3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4.55</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7.1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="M6" s="9">
+        <v>6.55</v>
+      </c>
+      <c r="N6" s="9">
+        <v>14.6</v>
+      </c>
+      <c r="O6" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="P6" s="9">
+        <v>12.95</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1940,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/industry/TrendForce/NAND Flash.xlsx
+++ b/data/industry/TrendForce/NAND Flash.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\TrendForce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B8FFF9-74A7-444B-A60D-85603CE9E1A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F23B53-6176-4719-B734-19A616B6D4A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="74">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -286,6 +286,10 @@
   </si>
   <si>
     <t>UTC+8</t>
+  </si>
+  <si>
+    <t>PNY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1934,13 +1938,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A9E7BC-4FDA-42FF-94EB-B5FEB168C665}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1957,14 +1961,15 @@
     <col min="13" max="13" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="8.875" style="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="33" width="9" style="9"/>
-    <col min="34" max="16384" width="9" style="5"/>
+    <col min="17" max="19" width="10" style="9" customWidth="1"/>
+    <col min="20" max="22" width="12.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="14.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="36" width="9" style="9"/>
+    <col min="37" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2014,30 +2019,39 @@
         <v>70</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -2087,9 +2101,15 @@
       <c r="S2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -2101,8 +2121,11 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>46034</v>
       </c>
@@ -2110,7 +2133,7 @@
         <v>46034</v>
       </c>
       <c r="C3" s="7">
-        <v>0.61111111111111105</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
@@ -2151,18 +2174,18 @@
       <c r="P3" s="4">
         <v>189.99</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4">
         <v>153.97</v>
       </c>
-      <c r="R3" s="4">
+      <c r="U3" s="4">
         <v>153.97</v>
       </c>
-      <c r="S3" s="4">
+      <c r="V3" s="4">
         <v>153.97</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -2174,8 +2197,11 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>46052</v>
       </c>
@@ -2183,7 +2209,7 @@
         <v>46052</v>
       </c>
       <c r="C4" s="7">
-        <v>0.61111111111111105</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>7</v>
@@ -2224,18 +2250,18 @@
       <c r="P4" s="4">
         <v>259.32</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4">
         <v>155.79</v>
       </c>
-      <c r="R4" s="4">
+      <c r="U4" s="4">
         <v>155.79</v>
       </c>
-      <c r="S4" s="4">
+      <c r="V4" s="4">
         <v>155.79</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -2247,8 +2273,11 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>46066</v>
       </c>
@@ -2256,7 +2285,7 @@
         <v>46066</v>
       </c>
       <c r="C5" s="7">
-        <v>0.61111111111111105</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>72</v>
@@ -2297,14 +2326,73 @@
       <c r="P5" s="9">
         <v>429.01</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="T5" s="9">
         <v>155.79</v>
       </c>
-      <c r="R5" s="9">
+      <c r="U5" s="9">
         <v>155.79</v>
       </c>
-      <c r="S5" s="9">
+      <c r="V5" s="9">
         <v>155.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>46079</v>
+      </c>
+      <c r="B6" s="6">
+        <v>46079</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="9">
+        <v>99</v>
+      </c>
+      <c r="F6" s="9">
+        <v>73.56</v>
+      </c>
+      <c r="G6" s="9">
+        <v>86.28</v>
+      </c>
+      <c r="H6" s="9">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <v>108.8</v>
+      </c>
+      <c r="J6" s="9">
+        <v>125</v>
+      </c>
+      <c r="K6" s="9">
+        <v>199.99</v>
+      </c>
+      <c r="L6" s="9">
+        <v>199.99</v>
+      </c>
+      <c r="M6" s="9">
+        <v>199.99</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>289.99</v>
+      </c>
+      <c r="R6" s="9">
+        <v>289.99</v>
+      </c>
+      <c r="S6" s="9">
+        <v>289.99</v>
+      </c>
+      <c r="T6" s="9">
+        <v>179.79</v>
+      </c>
+      <c r="U6" s="9">
+        <v>155.79</v>
+      </c>
+      <c r="V6" s="9">
+        <v>167.79</v>
       </c>
     </row>
   </sheetData>
